--- a/biology/Botanique/Manihot_glaziovii/Manihot_glaziovii.xlsx
+++ b/biology/Botanique/Manihot_glaziovii/Manihot_glaziovii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manihot glaziovii est une espèce de plantes à fleurs dicotylédones de la famille des Euphorbiaceae, de la sous-famille des Crotonoideae, originaire du Brésil. Ce sont des arbustes ou petits arbres pouvant atteindre 10 mètres de haut, dont le latex abondant a été exploité en Amérique du Sud pour la production de caoutchouc.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractère envahissant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Nouvelle-Calédonie, cette espèce est envahissante. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, cette espèce est envahissante. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
 </t>
         </is>
       </c>
